--- a/planning.xlsx
+++ b/planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelhacker/Documents/opensim-deadlift-techniques/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D7ED45-997C-2F44-A291-87AD47F9A1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C192EBC-0601-A54C-B379-F019D323A704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16680" xr2:uid="{D596EE47-F267-354E-8852-8744F315EF1A}"/>
   </bookViews>
@@ -691,7 +691,7 @@
   <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelhacker/Documents/opensim-deadlift-techniques/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C192EBC-0601-A54C-B379-F019D323A704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81391C5-B218-FA40-971B-101BAF041458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16680" xr2:uid="{D596EE47-F267-354E-8852-8744F315EF1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
-  <si>
-    <t>Test Athlete</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Athlete 1</t>
   </si>
@@ -255,6 +252,15 @@
   </si>
   <si>
     <t>Email: marcel.hacker@univie.ac.at</t>
+  </si>
+  <si>
+    <t>Athlete 0</t>
+  </si>
+  <si>
+    <t>Inverse dynamics</t>
+  </si>
+  <si>
+    <t>Inverse kinematics</t>
   </si>
 </sst>
 </file>
@@ -335,23 +341,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -691,12 +697,12 @@
   <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" customWidth="1"/>
@@ -706,20 +712,20 @@
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -729,7 +735,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -738,7 +744,9 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -746,7 +754,9 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -754,28 +764,28 @@
       <c r="F5" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I13" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
+      <c r="I13" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
       <c r="I14" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
@@ -783,332 +793,332 @@
       <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>6</v>
+      <c r="A15" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="B15" s="1">
         <f>COUNTA(A15:A94)</f>
         <v>61</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+      <c r="E15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="6" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelhacker/Documents/opensim-deadlift-techniques/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81391C5-B218-FA40-971B-101BAF041458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE225906-C0D7-FB4A-AD41-7A5058C63374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16680" xr2:uid="{D596EE47-F267-354E-8852-8744F315EF1A}"/>
   </bookViews>
@@ -697,7 +697,7 @@
   <dimension ref="A1:M75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelhacker/Documents/opensim-deadlift-techniques/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE225906-C0D7-FB4A-AD41-7A5058C63374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3C2766-8D5B-C541-9879-3DAF4492F2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16680" xr2:uid="{D596EE47-F267-354E-8852-8744F315EF1A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Athlete 1</t>
   </si>
@@ -261,13 +261,19 @@
   </si>
   <si>
     <t>Inverse kinematics</t>
+  </si>
+  <si>
+    <t>LBAR</t>
+  </si>
+  <si>
+    <t>RBAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -294,6 +300,12 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -335,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -347,17 +359,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -694,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BC5316-D5E8-584C-B1B8-90306BBB571C}">
-  <dimension ref="A1:M75"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
@@ -732,6 +759,11 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
@@ -740,8 +772,9 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -750,8 +783,14 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -760,17 +799,26 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I13" s="6" t="s">
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="I13" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -779,18 +827,18 @@
       <c r="B14" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="I14" s="10" t="s">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="I14" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -798,33 +846,33 @@
       </c>
       <c r="B15" s="1">
         <f>COUNTA(A15:A94)</f>
-        <v>61</v>
-      </c>
-      <c r="E15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
@@ -1119,6 +1167,16 @@
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelhacker/Documents/opensim-deadlift-techniques/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3C2766-8D5B-C541-9879-3DAF4492F2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F612673-53B0-6144-869E-3E4C788BCD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16680" xr2:uid="{D596EE47-F267-354E-8852-8744F315EF1A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Athlete 1</t>
   </si>
@@ -44,12 +44,6 @@
     <t>Athlete 2</t>
   </si>
   <si>
-    <t>Scaling</t>
-  </si>
-  <si>
-    <t>Data collection</t>
-  </si>
-  <si>
     <t>Markerlist</t>
   </si>
   <si>
@@ -251,29 +245,56 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Email: marcel.hacker@univie.ac.at</t>
-  </si>
-  <si>
     <t>Athlete 0</t>
   </si>
   <si>
-    <t>Inverse dynamics</t>
-  </si>
-  <si>
-    <t>Inverse kinematics</t>
-  </si>
-  <si>
     <t>LBAR</t>
   </si>
   <si>
     <t>RBAR</t>
+  </si>
+  <si>
+    <t>1. Data collection</t>
+  </si>
+  <si>
+    <t>2. Scaling</t>
+  </si>
+  <si>
+    <t>3. Inverse kinematics</t>
+  </si>
+  <si>
+    <t>Email:</t>
+  </si>
+  <si>
+    <t>marcel.hacker@univie.ac.at</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>4. Check kinematics</t>
+  </si>
+  <si>
+    <t>5. Inverse dynamics</t>
+  </si>
+  <si>
+    <t>6. Check moments</t>
+  </si>
+  <si>
+    <t>7. Check actuators</t>
+  </si>
+  <si>
+    <t>8. Static Optimizastion</t>
+  </si>
+  <si>
+    <t>9. Reduction Residuals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -308,8 +329,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,6 +385,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -344,10 +401,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -359,8 +417,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -372,23 +429,33 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -721,474 +788,548 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17BC5316-D5E8-584C-B1B8-90306BBB571C}">
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="32.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="1" customWidth="1"/>
+    <col min="8" max="9" width="19.83203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="14"/>
+      <c r="B1" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+    <row r="2" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="I16" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="I13" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="B17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="I17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <f>COUNTA(A18:A97)</f>
+        <v>63</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="E19" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="I14" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1">
-        <f>COUNTA(A15:A94)</f>
-        <v>63</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>39</v>
+      <c r="A48" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>40</v>
+      <c r="A49" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
-        <v>42</v>
+      <c r="A51" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>43</v>
+      <c r="A52" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
-        <v>55</v>
+      <c r="A64" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>56</v>
+      <c r="A65" s="3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>58</v>
+      <c r="A67" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>59</v>
+      <c r="A68" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>75</v>
+      <c r="A76" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>76</v>
+      <c r="A77" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="I16:M16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="J17:N17"/>
+    <mergeCell ref="J18:N18"/>
+    <mergeCell ref="J19:N19"/>
+    <mergeCell ref="I16:N16"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J17" r:id="rId1" xr:uid="{C8327073-D7F6-4540-B3CC-35C1FF647756}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelhacker/Documents/opensim-deadlift-techniques/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F612673-53B0-6144-869E-3E4C788BCD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BDD05A-6BB5-D746-AF3A-3D0BC3600E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16680" xr2:uid="{D596EE47-F267-354E-8852-8744F315EF1A}"/>
   </bookViews>
@@ -791,7 +791,7 @@
   <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.3"/>

--- a/planning.xlsx
+++ b/planning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcelhacker/Documents/opensim-deadlift-techniques/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BDD05A-6BB5-D746-AF3A-3D0BC3600E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B9C40D-5C83-E94E-ADCE-5A7AFD9F0249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16680" xr2:uid="{D596EE47-F267-354E-8852-8744F315EF1A}"/>
   </bookViews>
